--- a/public/file_nilai/544955990extra_kelas4_import.xlsx
+++ b/public/file_nilai/544955990extra_kelas4_import.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alirena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4647172C-5417-45D8-B75E-C6908C5E42CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69DC6E-4D6F-42FC-B97E-393F431D89B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13587" yWindow="0" windowWidth="13887" windowHeight="14799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="136">
   <si>
     <t>Agama Islam</t>
   </si>
@@ -84,36 +83,6 @@
     <t>Penilaian</t>
   </si>
   <si>
-    <t>Latihan 1</t>
-  </si>
-  <si>
-    <t>Latihan 2</t>
-  </si>
-  <si>
-    <t>Latihan 3</t>
-  </si>
-  <si>
-    <t>Latihan 4</t>
-  </si>
-  <si>
-    <t>Latihan 5</t>
-  </si>
-  <si>
-    <t>Tugas 1</t>
-  </si>
-  <si>
-    <t>Tugas 2</t>
-  </si>
-  <si>
-    <t>Tugas 3</t>
-  </si>
-  <si>
-    <t>Tugas 4</t>
-  </si>
-  <si>
-    <t>Tugas 5</t>
-  </si>
-  <si>
     <t>Ulangan Harian</t>
   </si>
   <si>
@@ -162,9 +131,6 @@
     <t>Guru</t>
   </si>
   <si>
-    <t>Isak S. Snanfi</t>
-  </si>
-  <si>
     <t>Chandra Kirana</t>
   </si>
   <si>
@@ -174,9 +140,6 @@
     <t>Erlina</t>
   </si>
   <si>
-    <t>Bernadus Beda Balepapan</t>
-  </si>
-  <si>
     <t>Rinto Sianturi</t>
   </si>
   <si>
@@ -192,9 +155,6 @@
     <t>Floriana Golu Aran</t>
   </si>
   <si>
-    <t xml:space="preserve">Heri </t>
-  </si>
-  <si>
     <t>Nasrawati</t>
   </si>
   <si>
@@ -454,6 +414,33 @@
   </si>
   <si>
     <t>Baik</t>
+  </si>
+  <si>
+    <t>Tugas</t>
+  </si>
+  <si>
+    <t>Latihan</t>
+  </si>
+  <si>
+    <t>Pemetaan Awal</t>
+  </si>
+  <si>
+    <t>Praktek</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Portofolio</t>
+  </si>
+  <si>
+    <t>Presentasi</t>
+  </si>
+  <si>
+    <t>Heri Handoko</t>
+  </si>
+  <si>
+    <t>Selpianus Nabyal</t>
   </si>
 </sst>
 </file>
@@ -831,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="F6:G19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F6:G17" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F6:G17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Penilaian" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Nomor"/>
@@ -853,10 +840,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="O1:P18" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P18">
-    <sortCondition ref="O1:O18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="O1:P17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O1:P17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P17">
+    <sortCondition ref="O1:O17"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Guru"/>
@@ -1169,78 +1156,78 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
     <col min="15" max="25" width="9" customWidth="1"/>
-    <col min="26" max="29" width="9.125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="8.625" hidden="1" customWidth="1"/>
-    <col min="31" max="35" width="9.125" hidden="1" customWidth="1"/>
-    <col min="36" max="37" width="9.125" hidden="1"/>
+    <col min="26" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="31" max="35" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="44.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>547</v>
@@ -1255,24 +1242,24 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>548</v>
@@ -1287,24 +1274,24 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>549</v>
@@ -1319,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>550</v>
@@ -1351,24 +1338,24 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>551</v>
@@ -1383,24 +1370,24 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>552</v>
@@ -1415,24 +1402,24 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>553</v>
@@ -1447,24 +1434,24 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>554</v>
@@ -1479,24 +1466,24 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>555</v>
@@ -1511,24 +1498,24 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>556</v>
@@ -1543,24 +1530,24 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>557</v>
@@ -1575,24 +1562,24 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>558</v>
@@ -1607,24 +1594,24 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>559</v>
@@ -1639,24 +1626,24 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>560</v>
@@ -1671,24 +1658,24 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>561</v>
@@ -1703,24 +1690,24 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>562</v>
@@ -1735,24 +1722,24 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>563</v>
@@ -1767,24 +1754,24 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>564</v>
@@ -1799,24 +1786,24 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>565</v>
@@ -1831,24 +1818,24 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>566</v>
@@ -1863,24 +1850,24 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>567</v>
@@ -1895,24 +1882,24 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>568</v>
@@ -1927,24 +1914,24 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>569</v>
@@ -1959,24 +1946,24 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>570</v>
@@ -1991,24 +1978,24 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>571</v>
@@ -2023,24 +2010,24 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>572</v>
@@ -2055,24 +2042,24 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>573</v>
@@ -2087,24 +2074,24 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>574</v>
@@ -2119,24 +2106,24 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>575</v>
@@ -2151,24 +2138,24 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>576</v>
@@ -2183,24 +2170,24 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>577</v>
@@ -2215,24 +2202,24 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D33">
         <v>578</v>
@@ -2247,24 +2234,24 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>579</v>
@@ -2279,24 +2266,24 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>580</v>
@@ -2311,24 +2298,24 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>581</v>
@@ -2343,24 +2330,24 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>582</v>
@@ -2375,24 +2362,24 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -2407,24 +2394,24 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <v>584</v>
@@ -2439,24 +2426,24 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <v>585</v>
@@ -2471,24 +2458,24 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>586</v>
@@ -2503,24 +2490,24 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L41" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <v>587</v>
@@ -2535,24 +2522,24 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>588</v>
@@ -2567,24 +2554,24 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>589</v>
@@ -2599,24 +2586,24 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>590</v>
@@ -2631,24 +2618,24 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>591</v>
@@ -2663,24 +2650,24 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <v>592</v>
@@ -2695,24 +2682,24 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>593</v>
@@ -2727,24 +2714,24 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L48" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M48" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <v>594</v>
@@ -2759,24 +2746,24 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M49" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>595</v>
@@ -2791,24 +2778,24 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <v>596</v>
@@ -2823,24 +2810,24 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L51" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <v>597</v>
@@ -2855,24 +2842,24 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M52" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <v>598</v>
@@ -2887,24 +2874,24 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L53" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M53" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>599</v>
@@ -2919,24 +2906,24 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L54" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M54" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D55">
         <v>600</v>
@@ -2951,24 +2938,24 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L55" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D56">
         <v>601</v>
@@ -2983,24 +2970,24 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <v>602</v>
@@ -3015,24 +3002,24 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D58">
         <v>603</v>
@@ -3047,24 +3034,24 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D59">
         <v>604</v>
@@ -3079,24 +3066,24 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M59" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D60">
         <v>605</v>
@@ -3111,24 +3098,24 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D61">
         <v>606</v>
@@ -3143,24 +3130,24 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D62">
         <v>607</v>
@@ -3175,24 +3162,24 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D63">
         <v>608</v>
@@ -3207,24 +3194,24 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L63" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M63" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D64">
         <v>609</v>
@@ -3239,24 +3226,24 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M64" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D65">
         <v>610</v>
@@ -3271,24 +3258,24 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M65" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D66">
         <v>611</v>
@@ -3303,24 +3290,24 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L66" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D67">
         <v>612</v>
@@ -3335,24 +3322,24 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M67" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D68">
         <v>613</v>
@@ -3367,24 +3354,24 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D69">
         <v>614</v>
@@ -3399,24 +3386,24 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L69" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M69" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D70">
         <v>615</v>
@@ -3431,24 +3418,24 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>616</v>
@@ -3463,24 +3450,24 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L71" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D72">
         <v>617</v>
@@ -3495,24 +3482,24 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M72" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D73">
         <v>618</v>
@@ -3527,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M73" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3555,28 +3542,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="2.25" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -3594,13 +3581,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -3608,7 +3595,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>547</v>
@@ -3626,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3640,7 +3627,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>548</v>
@@ -3658,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -3672,7 +3659,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>549</v>
@@ -3684,13 +3671,13 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -3698,7 +3685,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>550</v>
@@ -3710,13 +3697,13 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -3724,7 +3711,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>551</v>
@@ -3742,13 +3729,13 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -3756,13 +3743,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>552</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3774,13 +3761,13 @@
         <v>6</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -3788,13 +3775,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>553</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3806,7 +3793,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -3814,13 +3801,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>554</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3832,7 +3819,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -3840,13 +3827,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3858,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -3866,13 +3853,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>556</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3884,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -3892,19 +3879,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>557</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P12">
         <v>11</v>
@@ -3912,19 +3899,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>558</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="P13">
         <v>12</v>
@@ -3932,19 +3919,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>559</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="P14">
         <v>13</v>
@@ -3952,19 +3939,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P15">
         <v>14</v>
@@ -3972,19 +3959,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>561</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -3992,19 +3979,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>562</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="P17">
         <v>16</v>
@@ -4012,41 +3999,23 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>563</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>564</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>565</v>
@@ -4054,7 +4023,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>566</v>
@@ -4062,7 +4031,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>567</v>
@@ -4070,7 +4039,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>568</v>
@@ -4078,7 +4047,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>569</v>
@@ -4086,7 +4055,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>570</v>
@@ -4094,7 +4063,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>571</v>
@@ -4102,7 +4071,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>572</v>
@@ -4110,7 +4079,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>573</v>
@@ -4118,7 +4087,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>574</v>
@@ -4126,7 +4095,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>575</v>
@@ -4134,7 +4103,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>576</v>
@@ -4142,7 +4111,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>577</v>
@@ -4150,7 +4119,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>578</v>
@@ -4158,7 +4127,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>579</v>
@@ -4166,7 +4135,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>580</v>
@@ -4174,7 +4143,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>581</v>
@@ -4182,7 +4151,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>582</v>
@@ -4190,7 +4159,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>583</v>
@@ -4198,7 +4167,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>584</v>
@@ -4206,7 +4175,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>585</v>
@@ -4214,7 +4183,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>586</v>
@@ -4222,7 +4191,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>587</v>
@@ -4230,7 +4199,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>588</v>
@@ -4238,7 +4207,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>589</v>
@@ -4246,7 +4215,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>590</v>
@@ -4254,7 +4223,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>591</v>
@@ -4262,7 +4231,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>592</v>
@@ -4270,7 +4239,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>593</v>
@@ -4278,7 +4247,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>594</v>
@@ -4286,7 +4255,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>595</v>
@@ -4294,7 +4263,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>596</v>
@@ -4302,7 +4271,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>597</v>
@@ -4310,7 +4279,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>598</v>
@@ -4318,7 +4287,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>599</v>
@@ -4326,7 +4295,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>600</v>
@@ -4334,7 +4303,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>601</v>
@@ -4342,7 +4311,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>602</v>
@@ -4350,7 +4319,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>603</v>
@@ -4358,7 +4327,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>604</v>
@@ -4366,7 +4335,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>605</v>
@@ -4374,7 +4343,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>606</v>
@@ -4382,7 +4351,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>607</v>
@@ -4390,7 +4359,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>608</v>
@@ -4398,7 +4367,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>609</v>
@@ -4406,7 +4375,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>610</v>
@@ -4414,7 +4383,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>611</v>
@@ -4422,7 +4391,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>612</v>
@@ -4430,7 +4399,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>613</v>
@@ -4438,7 +4407,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>614</v>
@@ -4446,7 +4415,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>615</v>
@@ -4454,7 +4423,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>616</v>
@@ -4462,7 +4431,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B72">
         <v>617</v>
@@ -4470,7 +4439,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>618</v>
@@ -4486,16 +4455,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>